--- a/P0087/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0087/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0087\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3833D1-8077-4138-80C7-DE2047712DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{EB3833D1-8077-4138-80C7-DE2047712DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42289433-AFE3-4906-BC0C-1600E51DCB7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -98,10 +98,10 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>FORMULACIÓN POMPCA RIO BAJO SAN JORGE</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0087/02_PRODUCTOS/CORPOMOJANA/pomca-documento-2502-01</t>
+    <t>pomca-documento-2502-01</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0087/02_PRODUCTOS/CORPOMOJANA/pomca-documento-2502-01.pdf</t>
   </si>
   <si>
     <t>Corpomojana</t>
@@ -113,37 +113,19 @@
     <t>NA</t>
   </si>
   <si>
-    <t>El documento presenta el Plan de Ordenamiento y Manejo de la Cuenca Hidrográfica del Río Bajo San Jorge, un esfuerzo colaborativo entre la Corporación para el Desarrollo Sostenible de la Mojana y el San Jorge (CORPOMOJANA) y el consorcio Hidro San Jorge. La cuenca se ubica en la región que abarca varios departamentos, incluyendo Bolívar, Sucre, Antioquía y Bolívar,con un área de 1.527.883,6 Hectáreas._x000D_
-_x000D_
-El documento está estructurado en varias fases: Aprestamiento, Diagnóstico, Prospectiva y Zonificación Ambiental, y Formulación. En la fase de Aprestamiento, se identifican y priorizan los actores involucrados en la cuenca, mientras que la fase de Diagnóstico presenta un análisis detallado del estado actual de la cuenca en aspectos físicos, bióticos, socioeconómicos y de gestión del riesgo. Posteriormente, la fase de Prospectiva y Zonificación Ambiental establece escenarios futuros y define unidades homogéneas para la gestión. Finalmente, la fase de Formulación plantea objetivos, estrategias y programas para la administración de los recursos naturales._x000D_
-_x000D_
-La principal conclusión del documento es la necesidad de un enfoque integral y participativo en la gestión de la cuenca, que involucre a todos los actores relevantes para asegurar la sostenibilidad ambiental y el bienestar de las comunidades locales. Este enfoque es fundamental para abordar los desafíos actuales y futuros que enfrenta la cuenca del Río Bajo San Jorge</t>
-  </si>
-  <si>
-    <t>INFORME</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El documento presenta un análisis exhaustivo de la cuenca del Río Bajo San Jorge, abarcando aspectos geográficos, socioeconómicos, ambientales y de gestión de recursos. A continuación, se resumen los principales resultados y conclusiones de cada sección._x000D_
-_x000D_
-1. Localización Geográfica y Caracterización de la Cuenca: La cuenca del Río Bajo San Jorge se extiende por un área de 1.527.883,6 hectáreas, abarcando municipios de los departamentos de Antioquia, Bolívar, Córdoba y Sucre. Se identifican tres nodos principales: Mojana, Sabana y Transición, cada uno con diferentes poblaciones y áreas. Este análisis permite entender la distribución demográfica y la importancia de la cuenca en el contexto regional._x000D_
-_x000D_
-2. Diagnóstico Ambiental: Se realizó un diagnóstico integral que incluye la caracterización del componente físico-biótico, socioeconómico y cultural. Se identificaron problemas críticos como la deforestación, la contaminación de fuentes hídricas y la erosión del suelo. Las áreas críticas fueron mapeadas, lo que facilita la priorización de acciones para la conservación y manejo de recursos._x000D_
-_x000D_
-3. Prospectiva y Zonificación Ambiental: Se desarrollaron escenarios prospectivos que analizan el uso del suelo y los recursos hídricos en un horizonte de diez años. Se identificaron tendencias que podrían afectar negativamente la cuenca si no se implementan medidas de manejo adecuadas. La zonificación ambiental se basa en criterios biofísicos y socioeconómicos, permitiendo una planificación más efectiva._x000D_
-_x000D_
-4. Formulación del Plan: Se establecieron objetivos claros y estrategias para la gestión sostenible de la cuenca. Se proponen programas y proyectos específicos que abordan la conservación de recursos naturales, la restauración de ecosistemas y la mejora de la calidad de vida de las comunidades locales. La participación de actores clave es fundamental para el éxito de estas iniciativas. Los principales proyectos fueron:  Restauración de Ecosistemas: Implementación de programas de reforestación y recuperación de áreas degradadas para mejorar la biodiversidad y la calidad del suelo. Manejo Sostenible de Recursos Hídricos: Proyectos para la conservación y rehabilitación de fuentes hídricas, así como la promoción de prácticas de uso eficiente del agua. Educación y Sensibilización Ambiental: Campañas educativas dirigidas a las comunidades locales para fomentar la conciencia sobre la conservación y el uso sostenible de los recursos naturales. Desarrollo de Proyectos Productivos Sostenibles: Fomento de iniciativas económicas que integren prácticas sostenibles, como la agricultura orgánica y el ecoturismo. Gestión de Residuos Sólidos: Implementación de sistemas de manejo de residuos para reducir la contaminación y promover el reciclaje._x000D_
-_x000D_
-Conclusiones: El documento concluye que la gestión de la cuenca del Río Bajo San Jorge requiere un enfoque integral y participativo. Se enfatiza la importancia de involucrar a las comunidades locales y a los diferentes actores en la toma de decisiones. Las recomendaciones incluyen la implementación de políticas de conservación, la promoción de prácticas sostenibles y la educación ambiental._x000D_
-</t>
+    <t>El documento titulado "Plan de Ordenamiento y Manejo de la Cuenca Hidrográfica Río Bajo San Jorge" presenta un enfoque integral para la gestión sostenible de la cuenca, abarcando diversas fases que incluyen aprestamiento, diagnóstico, prospectiva, zonificación ambiental y formulación. Este estudio se centra en la Cuenca Hidrográfica Baja del Río San Jorge, que se extiende por varios municipios y departamentos, aunque el documento no especifica todos los límites geográficos, se infiere que involucra áreas de interés ambiental y socioeconómico en la región. El principal objetivo del documento es formular un plan que permita la ordenación y manejo eficiente de los recursos naturales renovables en la cuenca, asegurando la sostenibilidad ambiental y el bienestar de las comunidades locales. Se busca identificar problemas, establecer lineamientos de acción estratégica y promover la participación de los actores sociales en el proceso de gestión. Este documento se estructura de la siguiente manera: 1. Marco Conceptual y Metodológico: Se establece el contexto teórico y las bases metodológicas que guiarán el desarrollo del POMCA, incluyendo la planificación estratégica y el enfoque de marco lógico. 2. Fase de Aprestamiento: Esta fase incluye la identificación, caracterización y priorización de actores relevantes en la cuenca, así como la elaboración de una estrategia de participación. Se realizó una revisión bibliográfica de estudios previos y se llevaron a cabo trabajos de campo utilizando técnicas como la observación participante y diálogos informales. 3. Análisis Situacional Inicial: Se recopila y analiza información sobre el estado actual de la cuenca, considerando aspectos físicos, bióticos, socioeconómicos y culturales. Se identifican potencialidades, limitantes y conflictos ambientales, lo que permite un diagnóstico preliminar. 4. Fase de Diagnóstico: Se establece el Consejo de Cuenca y se determina el estado actual de la subzona hidrográfica, consolidando el análisis situacional que incluye la evaluación de conflictos ambientales y territorios funcionales. 5. Prospectiva y Zonificación Ambiental: Se desarrollan escenarios futuros para la cuenca, tanto tendenciales como deseados, basados en la opinión de los actores sociales y en criterios biofísicos. 6. Formulación del Plan: Se plantea el componente programático que incluye objetivos, estrategias, programas y proyectos, así como un plan operativo para la gestión de los recursos naturales.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El documento "Plan de Ordenamiento y Manejo de la Cuenca Hidrográfica Río Bajo San Jorge" presenta un análisis exhaustivo de la situación actual de la cuenca, identificando problemas críticos y proponiendo estrategias para su manejo sostenible. El principal objetivo del documento es formular un plan que permita la ordenación y manejo eficiente de los recursos naturales renovables en la cuenca, asegurando la sostenibilidad ambiental y el bienestar de las comunidades locales. Se busca identificar problemas, establecer lineamientos de acción estratégica y promover la participación de los actores sociales en el proceso de gestión. La metodología desarrollada pra este estudio, se basó en metodologías participativas, incluyendo talleres con expertos y actores sociales para la construcción de un diagnóstico y la formulación de estrategias. Se empleron herramientas de planificación estratégica, como el enfoque de marco lógico, y se utilizarón técnicas de fotointerpretación y sistemas de información geográfica (SIG) para el análisis espacial y la zonificación. Los resultados mas destacados de esteestudio fueron los siguentes: 1. Degradación de Recursos Naturales: Se identificó una notable disminución de los bienes y servicios ecosistémicos debido a la degradación de coberturas naturales, impulsada por presiones antrópicas como el crecimiento poblacional y el uso inadecuado del suelo. 2. Conflictos Ambientales: Se documentaron conflictos significativos relacionados con la disponibilidad y calidad del agua, así como la generación de vertimientos contaminantes, que afectan tanto a los ecosistemas como a las comunidades locales. 3. Participación de Actores Sociales: Se caracterizaron 3,904 actores en la cuenca, destacando la importancia de las comunidades étnicas y su conocimiento ancestral en la gestión de recursos. Se establecieron espacios de diálogo para integrar saberes y promover la participación activa. 4. Análisis Situacional: Se realizó un diagnóstico integral que incluyó la evaluación de componentes físicos, bióticos, socioeconómicos y culturales, permitiendo identificar áreas críticas y priorizar acciones. 5. Escenarios Futuros: Se desarrollaron escenarios prospectivos que reflejan tanto tendencias actuales como visiones deseadas para el futuro de la cuenca, lo que facilitará la planificación a largo plazo. En conclusión, La gestión de la Cuenca Hidrográfica Río Bajo San Jorge requiere un enfoque integral que contemple la participación de todos los actores involucrados y la consideración de sus saberes y necesidades. Además, es fundamental implementar estrategias que mitiguen la degradación ambiental y promuevan el uso sostenible de los recursos hídricos.</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>El documento se encuentra bien estructurado. No se incluyen los anexos de la formulación del POMCA. Este documento es clave para la toma de decisiones, para garantizar que la estructuración de nuevos proyectos que vayan en línea con las estrategias propuestas en este documento. Asi como sirve de línea base para la revisión de información previa en la zona._x000D_
@@ -151,14 +133,14 @@
 En el documento se aplica la metodología MIC-MAC para la construcción de escenarios prospectivos que permiten entender dinámicas y relaciones entre diferentes variables que afectan la cuenca del Río Bajo San Jorge. Entre las variables críticas que influyen significativamente en la situación socioambiental de la cuenca se encuentran densidad poblacional, el uso del suelo, la calidad del agua, y la disponibilidad de recursos hídricos.</t>
   </si>
   <si>
-    <t>Corpomojana, Corporación Autónoma Regional de los Valles del Sinú y del San Jorge, Carsucre, Corantioquia, Cuenca, Río Bajo San Jorge, Ordenamiento, Manejo, Recursos Naturales, Diagnóstico Ambiental, Prospectiva,  Zonificación,   Sostenibilidad, Participación Comunitaria</t>
+    <t>Corpomojana, Corporación Autónoma Regional de los Valles del Sinú y del San Jorge, Carsucre, Corantioquia, Cuenca, Río Bajo San Jorge, ordenamiento, manejo, recursos naturales, diagnóstico ambiental, prospectiva,  zonificación, sostenibilidad, participación comunitaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,14 +240,14 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -274,12 +256,6 @@
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -591,15 +567,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -607,10 +574,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,26 +608,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,199 +899,197 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2019</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="3"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="7"/>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1121,6 +1101,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1264,37 +1253,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0087/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0087/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0087\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{EB3833D1-8077-4138-80C7-DE2047712DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42289433-AFE3-4906-BC0C-1600E51DCB7E}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{EB3833D1-8077-4138-80C7-DE2047712DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB5D9EF4-2639-4828-9B05-F898941338AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +158,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -247,7 +262,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -899,7 +915,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1018,13 +1034,13 @@
       <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -1054,7 +1070,7 @@
     <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1101,15 +1117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1253,10 +1260,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>